--- a/PROJECTS MACRO/View open PO VS ex factory/RESULTS/Results Makro.xlsx
+++ b/PROJECTS MACRO/View open PO VS ex factory/RESULTS/Results Makro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\Bersama\IT\RPA PPIC\View open PO VS ex factory\RESULTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD132DDB-BEAF-4100-BD22-12A8CD144E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52915ECC-3DDA-41A2-BFB9-0BCFCA2E4EB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB27A06F-7602-4CE1-A7BB-274781A5FFC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9132085B-48F0-4288-9B3C-928C84E7B871}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT VIEW OPEN PO" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -176,13 +166,13 @@
     <t>Sum of BALANCE</t>
   </si>
   <si>
-    <t>6/14/2024 Total</t>
+    <t>06/14/2024 Total</t>
   </si>
   <si>
-    <t>6/21/2024 Total</t>
+    <t>06/21/2024 Total</t>
   </si>
   <si>
-    <t>6/28/2024 Total</t>
+    <t>06/28/2024 Total</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -242,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -530,16 +520,16 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C6F37-940E-40F5-955F-3FDFA2E5D77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07413155-1A6E-4726-B030-56A079B44F1C}">
   <sheetPr>
-    <tabColor rgb="FF5B5E7F"/>
+    <tabColor rgb="FF39BF5D"/>
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
@@ -552,7 +542,7 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
@@ -5964,9 +5954,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C49F863-D7BD-413F-B97D-4FD8F130A2AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCA952F-E0A1-4E87-9C3D-47670D39B5D8}">
   <sheetPr>
-    <tabColor rgb="FFCD8626"/>
+    <tabColor rgb="FF72FC3F"/>
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
@@ -5977,7 +5967,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
